--- a/ResultadoEleicoesDistritos/VIANA DO CASTELO_PAREDES DE COURA.xlsx
+++ b/ResultadoEleicoesDistritos/VIANA DO CASTELO_PAREDES DE COURA.xlsx
@@ -597,64 +597,64 @@
         <v>2550</v>
       </c>
       <c r="H2" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I2" t="n">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="J2" t="n">
-        <v>1115</v>
+        <v>1097</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>15</v>
       </c>
       <c r="S2" t="n">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="T2" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>1612</v>
+        <v>1629</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1647</v>
+        <v>1590</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
